--- a/导表工具/S-神器-删除.xlsx
+++ b/导表工具/S-神器-删除.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="21015" windowHeight="8055" tabRatio="801" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12690" tabRatio="801" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="常量配置" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3739" uniqueCount="993">
   <si>
     <t>导出类型</t>
   </si>
@@ -3234,9 +3234,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="38">
@@ -3358,16 +3358,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3381,16 +3387,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3398,53 +3403,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3465,15 +3423,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3487,10 +3446,42 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3502,8 +3493,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3554,7 +3554,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3566,13 +3602,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3584,13 +3614,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3602,73 +3626,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3686,7 +3644,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3698,43 +3728,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3839,44 +3839,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3919,153 +3884,188 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="28" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4635,7 +4635,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
@@ -4781,14 +4781,14 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:J100"/>
+  <dimension ref="A1:J99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="8" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="7" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="$A1:$XFD1"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.95" customHeight="1"/>
@@ -4807,155 +4807,185 @@
     <col min="12" max="16384" width="9" style="21"/>
   </cols>
   <sheetData>
+    <row r="1" customHeight="1" spans="1:6">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="25"/>
+      <c r="D1" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="27"/>
+    </row>
     <row r="2" customHeight="1" spans="1:6">
       <c r="A2" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>16</v>
+        <v>4</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="C2" s="25"/>
       <c r="D2" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="27"/>
-    </row>
-    <row r="3" customHeight="1" spans="1:6">
+        <v>19</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="28"/>
+    </row>
+    <row r="3" customHeight="1" spans="1:5">
       <c r="A3" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>18</v>
+        <v>8</v>
+      </c>
+      <c r="B3" s="27">
+        <v>1</v>
       </c>
       <c r="C3" s="25"/>
-      <c r="D3" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="28"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="30"/>
     </row>
     <row r="4" customHeight="1" spans="1:5">
-      <c r="A4" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="27">
-        <v>1</v>
-      </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="30"/>
-    </row>
-    <row r="5" customHeight="1" spans="1:5">
-      <c r="A5" s="31"/>
-      <c r="B5" s="31"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="31"/>
+      <c r="A4" s="31"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="31"/>
+    </row>
+    <row r="5" customHeight="1" spans="1:10">
+      <c r="A5" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="35" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="35" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="35"/>
     </row>
     <row r="6" customHeight="1" spans="1:10">
-      <c r="A6" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="33" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="J6" s="35"/>
+      <c r="A6" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="39"/>
     </row>
     <row r="7" customHeight="1" spans="1:10">
       <c r="A7" s="37" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="B7" s="38" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C7" s="37" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D7" s="37" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="E7" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="I7" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" s="39"/>
+        <v>32</v>
+      </c>
+      <c r="F7" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" s="37"/>
     </row>
     <row r="8" customHeight="1" spans="1:10">
-      <c r="A8" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" s="37" t="s">
-        <v>35</v>
-      </c>
-      <c r="I8" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="J8" s="37"/>
+      <c r="A8" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="22">
+        <v>101</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="22">
+        <v>8</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8" s="40"/>
     </row>
     <row r="9" customHeight="1" spans="1:10">
       <c r="A9" s="40" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B9" s="22">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C9" s="41" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D9" s="41" t="s">
         <v>39</v>
@@ -4964,10 +4994,10 @@
         <v>8</v>
       </c>
       <c r="F9" s="40" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G9" s="42" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H9" s="43" t="s">
         <v>42</v>
@@ -4979,13 +5009,13 @@
     </row>
     <row r="10" customHeight="1" spans="1:10">
       <c r="A10" s="40" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B10" s="22">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C10" s="41" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D10" s="41" t="s">
         <v>39</v>
@@ -4994,10 +5024,10 @@
         <v>8</v>
       </c>
       <c r="F10" s="40" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G10" s="42" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="H10" s="43" t="s">
         <v>42</v>
@@ -5009,13 +5039,13 @@
     </row>
     <row r="11" customHeight="1" spans="1:10">
       <c r="A11" s="40" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B11" s="22">
-        <v>103</v>
+        <v>201</v>
       </c>
       <c r="C11" s="41" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D11" s="41" t="s">
         <v>39</v>
@@ -5024,28 +5054,28 @@
         <v>8</v>
       </c>
       <c r="F11" s="40" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G11" s="42" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="H11" s="43" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="J11" s="40"/>
     </row>
     <row r="12" customHeight="1" spans="1:10">
       <c r="A12" s="40" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B12" s="22">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C12" s="41" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D12" s="41" t="s">
         <v>39</v>
@@ -5054,28 +5084,28 @@
         <v>8</v>
       </c>
       <c r="F12" s="40" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="G12" s="42" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="H12" s="43" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="J12" s="40"/>
     </row>
     <row r="13" customHeight="1" spans="1:10">
       <c r="A13" s="40" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B13" s="22">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C13" s="41" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D13" s="41" t="s">
         <v>39</v>
@@ -5084,28 +5114,28 @@
         <v>8</v>
       </c>
       <c r="F13" s="40" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="G13" s="42" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="H13" s="43" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="J13" s="40"/>
     </row>
     <row r="14" customHeight="1" spans="1:10">
       <c r="A14" s="40" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B14" s="22">
-        <v>203</v>
+        <v>301</v>
       </c>
       <c r="C14" s="41" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D14" s="41" t="s">
         <v>39</v>
@@ -5114,28 +5144,28 @@
         <v>8</v>
       </c>
       <c r="F14" s="40" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G14" s="42" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="H14" s="43" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="J14" s="40"/>
     </row>
     <row r="15" customHeight="1" spans="1:10">
       <c r="A15" s="40" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B15" s="22">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C15" s="41" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D15" s="41" t="s">
         <v>39</v>
@@ -5144,13 +5174,13 @@
         <v>8</v>
       </c>
       <c r="F15" s="40" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="G15" s="42" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="H15" s="43" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>43</v>
@@ -5159,13 +5189,13 @@
     </row>
     <row r="16" customHeight="1" spans="1:10">
       <c r="A16" s="40" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B16" s="22">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D16" s="41" t="s">
         <v>39</v>
@@ -5174,13 +5204,13 @@
         <v>8</v>
       </c>
       <c r="F16" s="40" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G16" s="42" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="H16" s="43" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>43</v>
@@ -5188,33 +5218,15 @@
       <c r="J16" s="40"/>
     </row>
     <row r="17" customHeight="1" spans="1:10">
-      <c r="A17" s="40" t="s">
-        <v>77</v>
-      </c>
-      <c r="B17" s="22">
-        <v>303</v>
-      </c>
-      <c r="C17" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="D17" s="41" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="22">
-        <v>8</v>
-      </c>
-      <c r="F17" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="G17" s="42" t="s">
-        <v>80</v>
-      </c>
-      <c r="H17" s="43" t="s">
-        <v>81</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>43</v>
-      </c>
+      <c r="A17" s="40"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="40"/>
       <c r="J17" s="40"/>
     </row>
     <row r="18" customHeight="1" spans="1:10">
@@ -5611,10 +5623,9 @@
       <c r="G50" s="43"/>
       <c r="H50" s="43"/>
       <c r="I50" s="40"/>
-      <c r="J50" s="40"/>
-    </row>
-    <row r="51" customHeight="1" spans="1:10">
-      <c r="A51" s="40"/>
+      <c r="J50" s="44"/>
+    </row>
+    <row r="51" customHeight="1" spans="2:9">
       <c r="B51" s="22"/>
       <c r="C51" s="41"/>
       <c r="D51" s="41"/>
@@ -5623,7 +5634,6 @@
       <c r="G51" s="43"/>
       <c r="H51" s="43"/>
       <c r="I51" s="40"/>
-      <c r="J51" s="44"/>
     </row>
     <row r="52" customHeight="1" spans="2:9">
       <c r="B52" s="22"/>
@@ -6104,16 +6114,6 @@
       <c r="G99" s="43"/>
       <c r="H99" s="43"/>
       <c r="I99" s="40"/>
-    </row>
-    <row r="100" customHeight="1" spans="2:9">
-      <c r="B100" s="22"/>
-      <c r="C100" s="41"/>
-      <c r="D100" s="41"/>
-      <c r="E100" s="40"/>
-      <c r="F100" s="40"/>
-      <c r="G100" s="43"/>
-      <c r="H100" s="43"/>
-      <c r="I100" s="40"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
